--- a/networks_errors.xlsx
+++ b/networks_errors.xlsx
@@ -342,7 +342,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="222" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,7 +429,7 @@
         <v>925</v>
       </c>
       <c r="B11">
-        <v>0.106</v>
+        <v>0.104</v>
       </c>
     </row>
   </sheetData>
